--- a/Table/Table_xls/s时光之穴/精英副本参数.xlsx
+++ b/Table/Table_xls/s时光之穴/精英副本参数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -945,14 +945,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,8 +966,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,6 +982,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,53 +1033,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,6 +1057,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1064,9 +1072,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,14 +1081,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,19 +1144,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,25 +1162,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,25 +1204,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,7 +1270,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,84 +1328,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1335,32 +1335,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1388,26 +1362,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1435,6 +1409,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1443,10 +1443,10 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1455,133 +1455,133 @@
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2054,35 +2054,35 @@
   <dimension ref="A1:AC114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.14285714285714" style="21"/>
-    <col min="3" max="3" width="14.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="46.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="12.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="13.4285714285714" style="22" customWidth="1"/>
-    <col min="7" max="8" width="15.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="14.2857142857143" customWidth="1"/>
-    <col min="10" max="10" width="12.1428571428571" customWidth="1"/>
-    <col min="12" max="13" width="38.8571428571429" customWidth="1"/>
-    <col min="14" max="14" width="9.57142857142857" customWidth="1"/>
-    <col min="16" max="16" width="10.8571428571429" customWidth="1"/>
-    <col min="17" max="17" width="17.2857142857143" customWidth="1"/>
-    <col min="18" max="18" width="17.7142857142857" customWidth="1"/>
-    <col min="19" max="19" width="17.1428571428571" customWidth="1"/>
-    <col min="20" max="20" width="19.1428571428571" customWidth="1"/>
-    <col min="21" max="21" width="17.8571428571429" customWidth="1"/>
-    <col min="22" max="22" width="16.2857142857143" customWidth="1"/>
-    <col min="23" max="23" width="14.5714285714286" customWidth="1"/>
-    <col min="24" max="24" width="12.7142857142857" customWidth="1"/>
-    <col min="25" max="25" width="15.1428571428571" customWidth="1"/>
-    <col min="26" max="26" width="16.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="9.13888888888889" style="21"/>
+    <col min="3" max="3" width="14.8611111111111" customWidth="1"/>
+    <col min="4" max="4" width="46.4259259259259" customWidth="1"/>
+    <col min="5" max="5" width="12.287037037037" customWidth="1"/>
+    <col min="6" max="6" width="13.4259259259259" style="22" customWidth="1"/>
+    <col min="7" max="8" width="15.4259259259259" customWidth="1"/>
+    <col min="9" max="9" width="14.287037037037" customWidth="1"/>
+    <col min="10" max="10" width="12.1388888888889" customWidth="1"/>
+    <col min="12" max="13" width="38.8611111111111" customWidth="1"/>
+    <col min="14" max="14" width="9.57407407407407" customWidth="1"/>
+    <col min="16" max="16" width="10.8611111111111" customWidth="1"/>
+    <col min="17" max="17" width="17.287037037037" customWidth="1"/>
+    <col min="18" max="18" width="17.712962962963" customWidth="1"/>
+    <col min="19" max="19" width="17.1388888888889" customWidth="1"/>
+    <col min="20" max="20" width="19.1388888888889" customWidth="1"/>
+    <col min="21" max="21" width="17.8611111111111" customWidth="1"/>
+    <col min="22" max="22" width="16.287037037037" customWidth="1"/>
+    <col min="23" max="23" width="14.5740740740741" customWidth="1"/>
+    <col min="24" max="24" width="12.712962962963" customWidth="1"/>
+    <col min="25" max="25" width="15.1388888888889" customWidth="1"/>
+    <col min="26" max="26" width="16.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="12.75" spans="1:29">
+    <row r="1" s="20" customFormat="1" ht="13.2" spans="1:29">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3328,9 +3328,9 @@
       <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="14.4" spans="1:19">
       <c r="A1" s="3">
         <v>110</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>331354</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:19">
+    <row r="2" s="1" customFormat="1" ht="14.4" spans="1:19">
       <c r="A2" s="3">
         <v>111</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>331354</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:19">
+    <row r="3" s="1" customFormat="1" ht="14.4" spans="1:19">
       <c r="A3" s="3">
         <v>112</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>331354</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:19">
+    <row r="4" s="1" customFormat="1" ht="14.4" spans="1:19">
       <c r="A4" s="3">
         <v>113</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>331354</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:19">
+    <row r="5" s="1" customFormat="1" ht="14.4" spans="1:19">
       <c r="A5" s="3">
         <v>114</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>331354</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.5" spans="1:19">
+    <row r="6" s="1" customFormat="1" ht="14.4" spans="1:19">
       <c r="A6" s="3">
         <v>115</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>331354</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13.5" spans="1:19">
+    <row r="7" s="1" customFormat="1" ht="14.4" spans="1:19">
       <c r="A7" s="3">
         <v>116</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>331354</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.5" spans="1:19">
+    <row r="8" s="1" customFormat="1" ht="14.4" spans="1:19">
       <c r="A8" s="3">
         <v>117</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>331354</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="13.5" spans="1:19">
+    <row r="9" s="1" customFormat="1" ht="14.4" spans="1:19">
       <c r="A9" s="3">
         <v>118</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>331354</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="13.5" spans="1:19">
+    <row r="10" s="1" customFormat="1" ht="14.4" spans="1:19">
       <c r="A10" s="3">
         <v>119</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>331354</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="13.5" spans="1:24">
+    <row r="14" s="2" customFormat="1" ht="14.4" spans="1:24">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="13.5" spans="1:24">
+    <row r="15" s="2" customFormat="1" ht="14.4" spans="1:24">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="13.5" spans="1:24">
+    <row r="16" s="2" customFormat="1" ht="14.4" spans="1:24">
       <c r="A16" s="2">
         <v>7</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="13.5" spans="1:24">
+    <row r="17" s="2" customFormat="1" ht="14.4" spans="1:24">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="13.5" spans="1:24">
+    <row r="18" s="2" customFormat="1" ht="14.4" spans="1:24">
       <c r="A18" s="2">
         <v>9</v>
       </c>
